--- a/2. wait_cp/2) 2017-08-23_wait_cpdiff.xlsx
+++ b/2. wait_cp/2) 2017-08-23_wait_cpdiff.xlsx
@@ -608,22 +608,22 @@
         <v>7.6</v>
       </c>
       <c r="C6">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D6">
         <v>6.9</v>
       </c>
       <c r="E6">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="F6">
-        <v>38.9</v>
+        <v>39.1</v>
       </c>
       <c r="G6">
         <v>96.90000000000001</v>
       </c>
       <c r="H6">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -631,25 +631,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>10.5</v>
+        <v>10.2</v>
       </c>
       <c r="C7">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="D7">
-        <v>9.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="E7">
         <v>0.76</v>
       </c>
       <c r="F7">
-        <v>49.1</v>
+        <v>47.6</v>
       </c>
       <c r="G7">
-        <v>148.5</v>
+        <v>144.3</v>
       </c>
       <c r="H7">
-        <v>76.3</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -891,25 +891,25 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>21.2</v>
+        <v>20.6</v>
       </c>
       <c r="C17">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>14.4</v>
+        <v>13.9</v>
       </c>
       <c r="E17">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="F17">
-        <v>47.3</v>
+        <v>46.3</v>
       </c>
       <c r="G17">
-        <v>206.2</v>
+        <v>206.6</v>
       </c>
       <c r="H17">
-        <v>124.2</v>
+        <v>125.3</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -917,25 +917,25 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="C18">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D18">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="E18">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F18">
-        <v>42</v>
+        <v>44.1</v>
       </c>
       <c r="G18">
-        <v>252.1</v>
+        <v>250.4</v>
       </c>
       <c r="H18">
-        <v>184</v>
+        <v>179.4</v>
       </c>
     </row>
     <row r="19" spans="1:8">
